--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Edn1-Ednra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Edn1-Ednra.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.330203</v>
+        <v>12.44313933333333</v>
       </c>
       <c r="H2">
-        <v>18.990609</v>
+        <v>37.329418</v>
       </c>
       <c r="I2">
-        <v>0.8286257135650145</v>
+        <v>0.9304541596872169</v>
       </c>
       <c r="J2">
-        <v>0.8286257135650146</v>
+        <v>0.930454159687217</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.239942333333333</v>
+        <v>0.7861523333333333</v>
       </c>
       <c r="N2">
-        <v>3.719827</v>
+        <v>2.358457</v>
       </c>
       <c r="O2">
-        <v>0.02873264962564676</v>
+        <v>0.01668797875153133</v>
       </c>
       <c r="P2">
-        <v>0.02873264962564676</v>
+        <v>0.01668797875153133</v>
       </c>
       <c r="Q2">
-        <v>7.849086678293666</v>
+        <v>9.782203020891778</v>
       </c>
       <c r="R2">
-        <v>70.64178010464299</v>
+        <v>88.039827188026</v>
       </c>
       <c r="S2">
-        <v>0.02380861229866509</v>
+        <v>0.01552739924613421</v>
       </c>
       <c r="T2">
-        <v>0.02380861229866509</v>
+        <v>0.01552739924613421</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.330203</v>
+        <v>12.44313933333333</v>
       </c>
       <c r="H3">
-        <v>18.990609</v>
+        <v>37.329418</v>
       </c>
       <c r="I3">
-        <v>0.8286257135650145</v>
+        <v>0.9304541596872169</v>
       </c>
       <c r="J3">
-        <v>0.8286257135650146</v>
+        <v>0.930454159687217</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>81.076077</v>
       </c>
       <c r="O3">
-        <v>0.6262470038157575</v>
+        <v>0.5736784050900728</v>
       </c>
       <c r="P3">
-        <v>0.6262470038157575</v>
+        <v>0.5736784050900727</v>
       </c>
       <c r="Q3">
-        <v>171.076008617877</v>
+        <v>336.280307570354</v>
       </c>
       <c r="R3">
-        <v>1539.684077560893</v>
+        <v>3026.522768133186</v>
       </c>
       <c r="S3">
-        <v>0.5189243704047843</v>
+        <v>0.5337814583387865</v>
       </c>
       <c r="T3">
-        <v>0.5189243704047845</v>
+        <v>0.5337814583387865</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.330203</v>
+        <v>12.44313933333333</v>
       </c>
       <c r="H4">
-        <v>18.990609</v>
+        <v>37.329418</v>
       </c>
       <c r="I4">
-        <v>0.8286257135650145</v>
+        <v>0.9304541596872169</v>
       </c>
       <c r="J4">
-        <v>0.8286257135650146</v>
+        <v>0.930454159687217</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.838413</v>
+        <v>19.22475933333333</v>
       </c>
       <c r="N4">
-        <v>44.515239</v>
+        <v>57.674278</v>
       </c>
       <c r="O4">
-        <v>0.3438441532869475</v>
+        <v>0.4080918692916219</v>
       </c>
       <c r="P4">
-        <v>0.3438441532869475</v>
+        <v>0.4080918692916219</v>
       </c>
       <c r="Q4">
-        <v>93.930166487839</v>
+        <v>239.2163590344671</v>
       </c>
       <c r="R4">
-        <v>845.371498390551</v>
+        <v>2152.947231310204</v>
       </c>
       <c r="S4">
-        <v>0.2849181068725551</v>
+        <v>0.3797107773169217</v>
       </c>
       <c r="T4">
-        <v>0.2849181068725551</v>
+        <v>0.3797107773169217</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.330203</v>
+        <v>12.44313933333333</v>
       </c>
       <c r="H5">
-        <v>18.990609</v>
+        <v>37.329418</v>
       </c>
       <c r="I5">
-        <v>0.8286257135650145</v>
+        <v>0.9304541596872169</v>
       </c>
       <c r="J5">
-        <v>0.8286257135650146</v>
+        <v>0.930454159687217</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.050758</v>
+        <v>0.07263</v>
       </c>
       <c r="N5">
-        <v>0.152274</v>
+        <v>0.21789</v>
       </c>
       <c r="O5">
-        <v>0.001176193271648314</v>
+        <v>0.00154174686677398</v>
       </c>
       <c r="P5">
-        <v>0.001176193271648314</v>
+        <v>0.00154174686677398</v>
       </c>
       <c r="Q5">
-        <v>0.321308443874</v>
+        <v>0.9037452097799999</v>
       </c>
       <c r="R5">
-        <v>2.891775994866</v>
+        <v>8.133706888019999</v>
       </c>
       <c r="S5">
-        <v>0.0009746239890099535</v>
+        <v>0.001434524785374583</v>
       </c>
       <c r="T5">
-        <v>0.0009746239890099536</v>
+        <v>0.001434524785374583</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.8272856666666666</v>
+        <v>0.8272856666666667</v>
       </c>
       <c r="H6">
         <v>2.481857</v>
       </c>
       <c r="I6">
-        <v>0.1082919735534193</v>
+        <v>0.0618615101204856</v>
       </c>
       <c r="J6">
-        <v>0.1082919735534193</v>
+        <v>0.06186151012048561</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.239942333333333</v>
+        <v>0.7861523333333333</v>
       </c>
       <c r="N6">
-        <v>3.719827</v>
+        <v>2.358457</v>
       </c>
       <c r="O6">
-        <v>0.02873264962564676</v>
+        <v>0.01668797875153133</v>
       </c>
       <c r="P6">
-        <v>0.02873264962564676</v>
+        <v>0.01668797875153133</v>
       </c>
       <c r="Q6">
-        <v>1.025786519859889</v>
+        <v>0.6503725571832223</v>
       </c>
       <c r="R6">
-        <v>9.232078678738999</v>
+        <v>5.853353014649</v>
       </c>
       <c r="S6">
-        <v>0.003111515333380201</v>
+        <v>0.001032343566428304</v>
       </c>
       <c r="T6">
-        <v>0.003111515333380201</v>
+        <v>0.001032343566428304</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.8272856666666666</v>
+        <v>0.8272856666666667</v>
       </c>
       <c r="H7">
         <v>2.481857</v>
       </c>
       <c r="I7">
-        <v>0.1082919735534193</v>
+        <v>0.0618615101204856</v>
       </c>
       <c r="J7">
-        <v>0.1082919735534193</v>
+        <v>0.06186151012048561</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>81.076077</v>
       </c>
       <c r="O7">
-        <v>0.6262470038157575</v>
+        <v>0.5736784050900728</v>
       </c>
       <c r="P7">
-        <v>0.6262470038157575</v>
+        <v>0.5736784050900727</v>
       </c>
       <c r="Q7">
         <v>22.357692137221</v>
@@ -883,10 +883,10 @@
         <v>201.219229234989</v>
       </c>
       <c r="S7">
-        <v>0.06781752397512407</v>
+        <v>0.03548861246238358</v>
       </c>
       <c r="T7">
-        <v>0.06781752397512407</v>
+        <v>0.03548861246238358</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.8272856666666666</v>
+        <v>0.8272856666666667</v>
       </c>
       <c r="H8">
         <v>2.481857</v>
       </c>
       <c r="I8">
-        <v>0.1082919735534193</v>
+        <v>0.0618615101204856</v>
       </c>
       <c r="J8">
-        <v>0.1082919735534193</v>
+        <v>0.06186151012048561</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.838413</v>
+        <v>19.22475933333333</v>
       </c>
       <c r="N8">
-        <v>44.515239</v>
+        <v>57.674278</v>
       </c>
       <c r="O8">
-        <v>0.3438441532869475</v>
+        <v>0.4080918692916219</v>
       </c>
       <c r="P8">
-        <v>0.3438441532869475</v>
+        <v>0.4080918692916219</v>
       </c>
       <c r="Q8">
-        <v>12.27560639098033</v>
+        <v>15.90436784158289</v>
       </c>
       <c r="R8">
-        <v>110.480457518823</v>
+        <v>143.139310574246</v>
       </c>
       <c r="S8">
-        <v>0.03723556195424796</v>
+        <v>0.02524517930227156</v>
       </c>
       <c r="T8">
-        <v>0.03723556195424797</v>
+        <v>0.02524517930227156</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.8272856666666666</v>
+        <v>0.8272856666666667</v>
       </c>
       <c r="H9">
         <v>2.481857</v>
       </c>
       <c r="I9">
-        <v>0.1082919735534193</v>
+        <v>0.0618615101204856</v>
       </c>
       <c r="J9">
-        <v>0.1082919735534193</v>
+        <v>0.06186151012048561</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.050758</v>
+        <v>0.07263</v>
       </c>
       <c r="N9">
-        <v>0.152274</v>
+        <v>0.21789</v>
       </c>
       <c r="O9">
-        <v>0.001176193271648314</v>
+        <v>0.00154174686677398</v>
       </c>
       <c r="P9">
-        <v>0.001176193271648314</v>
+        <v>0.00154174686677398</v>
       </c>
       <c r="Q9">
-        <v>0.04199136586866666</v>
+        <v>0.06008575797</v>
       </c>
       <c r="R9">
-        <v>0.3779222928179999</v>
+        <v>0.54077182173</v>
       </c>
       <c r="S9">
-        <v>0.0001273722906670489</v>
+        <v>9.537478940216555E-05</v>
       </c>
       <c r="T9">
-        <v>0.000127372290667049</v>
+        <v>9.537478940216555E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.107847</v>
+        <v>0.073169</v>
       </c>
       <c r="H10">
-        <v>0.323541</v>
+        <v>0.219507</v>
       </c>
       <c r="I10">
-        <v>0.01411720877369116</v>
+        <v>0.005471320266243153</v>
       </c>
       <c r="J10">
-        <v>0.01411720877369116</v>
+        <v>0.005471320266243153</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.239942333333333</v>
+        <v>0.7861523333333333</v>
       </c>
       <c r="N10">
-        <v>3.719827</v>
+        <v>2.358457</v>
       </c>
       <c r="O10">
-        <v>0.02873264962564676</v>
+        <v>0.01668797875153133</v>
       </c>
       <c r="P10">
-        <v>0.02873264962564676</v>
+        <v>0.01668797875153133</v>
       </c>
       <c r="Q10">
-        <v>0.133724060823</v>
+        <v>0.05752198007766667</v>
       </c>
       <c r="R10">
-        <v>1.203516547407</v>
+        <v>0.5176978206990001</v>
       </c>
       <c r="S10">
-        <v>0.0004056248133865744</v>
+        <v>9.130527634588847E-05</v>
       </c>
       <c r="T10">
-        <v>0.0004056248133865745</v>
+        <v>9.130527634588845E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.107847</v>
+        <v>0.073169</v>
       </c>
       <c r="H11">
-        <v>0.323541</v>
+        <v>0.219507</v>
       </c>
       <c r="I11">
-        <v>0.01411720877369116</v>
+        <v>0.005471320266243153</v>
       </c>
       <c r="J11">
-        <v>0.01411720877369116</v>
+        <v>0.005471320266243153</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>81.076077</v>
       </c>
       <c r="O11">
-        <v>0.6262470038157575</v>
+        <v>0.5736784050900728</v>
       </c>
       <c r="P11">
-        <v>0.6262470038157575</v>
+        <v>0.5736784050900727</v>
       </c>
       <c r="Q11">
-        <v>2.914603892073</v>
+        <v>1.977418492671</v>
       </c>
       <c r="R11">
-        <v>26.231435028657</v>
+        <v>17.796766434039</v>
       </c>
       <c r="S11">
-        <v>0.008840859696765613</v>
+        <v>0.003138778284075364</v>
       </c>
       <c r="T11">
-        <v>0.008840859696765615</v>
+        <v>0.003138778284075364</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.107847</v>
+        <v>0.073169</v>
       </c>
       <c r="H12">
-        <v>0.323541</v>
+        <v>0.219507</v>
       </c>
       <c r="I12">
-        <v>0.01411720877369116</v>
+        <v>0.005471320266243153</v>
       </c>
       <c r="J12">
-        <v>0.01411720877369116</v>
+        <v>0.005471320266243153</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.838413</v>
+        <v>19.22475933333333</v>
       </c>
       <c r="N12">
-        <v>44.515239</v>
+        <v>57.674278</v>
       </c>
       <c r="O12">
-        <v>0.3438441532869475</v>
+        <v>0.4080918692916219</v>
       </c>
       <c r="P12">
-        <v>0.3438441532869475</v>
+        <v>0.4080918692916219</v>
       </c>
       <c r="Q12">
-        <v>1.600278326811</v>
+        <v>1.406656415660667</v>
       </c>
       <c r="R12">
-        <v>14.402504941299</v>
+        <v>12.659907740946</v>
       </c>
       <c r="S12">
-        <v>0.004854119697564904</v>
+        <v>0.002232801314944303</v>
       </c>
       <c r="T12">
-        <v>0.004854119697564905</v>
+        <v>0.002232801314944303</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.107847</v>
+        <v>0.073169</v>
       </c>
       <c r="H13">
-        <v>0.323541</v>
+        <v>0.219507</v>
       </c>
       <c r="I13">
-        <v>0.01411720877369116</v>
+        <v>0.005471320266243153</v>
       </c>
       <c r="J13">
-        <v>0.01411720877369116</v>
+        <v>0.005471320266243153</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.050758</v>
+        <v>0.07263</v>
       </c>
       <c r="N13">
-        <v>0.152274</v>
+        <v>0.21789</v>
       </c>
       <c r="O13">
-        <v>0.001176193271648314</v>
+        <v>0.00154174686677398</v>
       </c>
       <c r="P13">
-        <v>0.001176193271648314</v>
+        <v>0.00154174686677398</v>
       </c>
       <c r="Q13">
-        <v>0.005474098025999999</v>
+        <v>0.00531426447</v>
       </c>
       <c r="R13">
-        <v>0.04926688223399999</v>
+        <v>0.04782838023</v>
       </c>
       <c r="S13">
-        <v>1.66045659740701E-05</v>
+        <v>8.43539087759736E-06</v>
       </c>
       <c r="T13">
-        <v>1.66045659740701E-05</v>
+        <v>8.43539087759736E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.374064</v>
+        <v>0.029595</v>
       </c>
       <c r="H14">
-        <v>1.122192</v>
+        <v>0.088785</v>
       </c>
       <c r="I14">
-        <v>0.04896510410787515</v>
+        <v>0.002213009926054287</v>
       </c>
       <c r="J14">
-        <v>0.04896510410787516</v>
+        <v>0.002213009926054287</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.239942333333333</v>
+        <v>0.7861523333333333</v>
       </c>
       <c r="N14">
-        <v>3.719827</v>
+        <v>2.358457</v>
       </c>
       <c r="O14">
-        <v>0.02873264962564676</v>
+        <v>0.01668797875153133</v>
       </c>
       <c r="P14">
-        <v>0.02873264962564676</v>
+        <v>0.01668797875153133</v>
       </c>
       <c r="Q14">
-        <v>0.463817788976</v>
+        <v>0.023266178305</v>
       </c>
       <c r="R14">
-        <v>4.174360100784</v>
+        <v>0.209395604745</v>
       </c>
       <c r="S14">
-        <v>0.001406897180214893</v>
+        <v>3.693066262292186E-05</v>
       </c>
       <c r="T14">
-        <v>0.001406897180214893</v>
+        <v>3.693066262292185E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.374064</v>
+        <v>0.029595</v>
       </c>
       <c r="H15">
-        <v>1.122192</v>
+        <v>0.088785</v>
       </c>
       <c r="I15">
-        <v>0.04896510410787515</v>
+        <v>0.002213009926054287</v>
       </c>
       <c r="J15">
-        <v>0.04896510410787516</v>
+        <v>0.002213009926054287</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>81.076077</v>
       </c>
       <c r="O15">
-        <v>0.6262470038157575</v>
+        <v>0.5736784050900728</v>
       </c>
       <c r="P15">
-        <v>0.6262470038157575</v>
+        <v>0.5736784050900727</v>
       </c>
       <c r="Q15">
-        <v>10.109213888976</v>
+        <v>0.799815499605</v>
       </c>
       <c r="R15">
-        <v>90.98292500078401</v>
+        <v>7.198339496445</v>
       </c>
       <c r="S15">
-        <v>0.03066424973908345</v>
+        <v>0.001269556004827323</v>
       </c>
       <c r="T15">
-        <v>0.03066424973908346</v>
+        <v>0.001269556004827323</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.374064</v>
+        <v>0.029595</v>
       </c>
       <c r="H16">
-        <v>1.122192</v>
+        <v>0.088785</v>
       </c>
       <c r="I16">
-        <v>0.04896510410787515</v>
+        <v>0.002213009926054287</v>
       </c>
       <c r="J16">
-        <v>0.04896510410787516</v>
+        <v>0.002213009926054287</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.838413</v>
+        <v>19.22475933333333</v>
       </c>
       <c r="N16">
-        <v>44.515239</v>
+        <v>57.674278</v>
       </c>
       <c r="O16">
-        <v>0.3438441532869475</v>
+        <v>0.4080918692916219</v>
       </c>
       <c r="P16">
-        <v>0.3438441532869475</v>
+        <v>0.4080918692916219</v>
       </c>
       <c r="Q16">
-        <v>5.550516120432</v>
+        <v>0.56895675247</v>
       </c>
       <c r="R16">
-        <v>49.954645083888</v>
+        <v>5.12061077223</v>
       </c>
       <c r="S16">
-        <v>0.01683636476257956</v>
+        <v>0.0009031113574844079</v>
       </c>
       <c r="T16">
-        <v>0.01683636476257957</v>
+        <v>0.0009031113574844078</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.374064</v>
+        <v>0.029595</v>
       </c>
       <c r="H17">
-        <v>1.122192</v>
+        <v>0.088785</v>
       </c>
       <c r="I17">
-        <v>0.04896510410787515</v>
+        <v>0.002213009926054287</v>
       </c>
       <c r="J17">
-        <v>0.04896510410787516</v>
+        <v>0.002213009926054287</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1485,28 +1485,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.050758</v>
+        <v>0.07263</v>
       </c>
       <c r="N17">
-        <v>0.152274</v>
+        <v>0.21789</v>
       </c>
       <c r="O17">
-        <v>0.001176193271648314</v>
+        <v>0.00154174686677398</v>
       </c>
       <c r="P17">
-        <v>0.001176193271648314</v>
+        <v>0.00154174686677398</v>
       </c>
       <c r="Q17">
-        <v>0.018986740512</v>
+        <v>0.00214948485</v>
       </c>
       <c r="R17">
-        <v>0.170880664608</v>
+        <v>0.01934536365</v>
       </c>
       <c r="S17">
-        <v>5.759242599724199E-05</v>
+        <v>3.411901119633915E-06</v>
       </c>
       <c r="T17">
-        <v>5.7592425997242E-05</v>
+        <v>3.411901119633914E-06</v>
       </c>
     </row>
   </sheetData>
